--- a/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
+++ b/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sanguozhi11\PersonalDoc\个人设计\三国志11资料收集.assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078DFE75-F872-4E04-BC6D-29D60307F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA71CC-6FAE-4FE2-8014-8FCD9AD2139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="港口" sheetId="4" r:id="rId4"/>
     <sheet name="宝物" sheetId="5" r:id="rId5"/>
     <sheet name="建筑物" sheetId="6" r:id="rId6"/>
+    <sheet name="特殊技映射" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14468" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14474" uniqueCount="1952">
   <si>
     <t>序号</t>
   </si>
@@ -5868,6 +5869,30 @@
   </si>
   <si>
     <t>破坏</t>
+  </si>
+  <si>
+    <t>额外特技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和戎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6194,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AM851"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -95753,7 +95778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA13E30-669F-4381-9488-B639183F5C1E}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -101567,4 +101592,61 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2F5BBC-7128-4EAD-B863-2A29257564E9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
+++ b/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sanguozhi11\PersonalDoc\个人设计\三国志11资料收集.assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA71CC-6FAE-4FE2-8014-8FCD9AD2139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558D2F5-4907-49AD-803E-B9AC41558FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -6219,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -101598,7 +101598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2F5BBC-7128-4EAD-B863-2A29257564E9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
+++ b/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\sanguozhi11\PersonalDoc\个人设计\三国志11资料收集.assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558D2F5-4907-49AD-803E-B9AC41558FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2011C78-7029-4E0A-BFA7-891425A711D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="宝物" sheetId="5" r:id="rId5"/>
     <sheet name="建筑物" sheetId="6" r:id="rId6"/>
     <sheet name="特殊技映射" sheetId="7" r:id="rId7"/>
+    <sheet name="特技" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14474" uniqueCount="1952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14779" uniqueCount="1998">
   <si>
     <t>序号</t>
   </si>
@@ -5893,6 +5894,144 @@
   <si>
     <t>和戎</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>行军</t>
+  </si>
+  <si>
+    <t>增加输送部队以外的陆上部队之移动力</t>
+  </si>
+  <si>
+    <t>无栈道通行的损害；减轻落石的损伤</t>
+  </si>
+  <si>
+    <t>仙君</t>
+  </si>
+  <si>
+    <t>预防毒泉、瘟疫，使豐收幾率增加，并且每月提供技巧点</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>施展一般攻击时可连续攻击２次</t>
+  </si>
+  <si>
+    <t>於陆上攻击时不会受到损伤</t>
+  </si>
+  <si>
+    <t>於水上攻击时不会受到损伤</t>
+  </si>
+  <si>
+    <t>计略</t>
+  </si>
+  <si>
+    <t>施展齐攻时能让对方陷入混乱</t>
+  </si>
+  <si>
+    <t>捕缚</t>
+  </si>
+  <si>
+    <t>击破敌方部队时，必定可捕捉无特技「强运」或名马的敌将</t>
+  </si>
+  <si>
+    <t>对敌方部队施展一般攻击时会心一击，攻击不会遭受反击＋[武干]</t>
+  </si>
+  <si>
+    <t>若在部队的士兵不多时被攻击，不会受到损伤</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>在敌方攻击力微弱时被攻击的话，不会受到损伤</t>
+  </si>
+  <si>
+    <t>不会被敌方战法移动，就算被一齐攻击也会视之为一般攻击</t>
+  </si>
+  <si>
+    <t>藤甲</t>
+  </si>
+  <si>
+    <t>火以外的攻击损伤减半，但火攻的损伤将增为２倍</t>
+  </si>
+  <si>
+    <t>天命</t>
+  </si>
+  <si>
+    <t>枪兵战法成功时施展会心一击＋[军魂]</t>
+  </si>
+  <si>
+    <t>戟兵战法成功时施展会心一击＋[军魂]</t>
+  </si>
+  <si>
+    <t>弩兵战法成功时施展会心一击＋[军魂]</t>
+  </si>
+  <si>
+    <t>骑兵战法成功时会心一击，并使攻击力较己方低的敌方部队混乱＋[军魂]</t>
+  </si>
+  <si>
+    <t>兵器战法成功时会心一击＋[军魂]</t>
+  </si>
+  <si>
+    <t>水军战法成功时会心一击，於水上移动有優势＋[军魂]</t>
+  </si>
+  <si>
+    <t>全战法成功时施展会心一击，有機率使周边部队陷入混乱＋[军魂]</t>
+  </si>
+  <si>
+    <t>以战法让敌方部队移动区格时，可让敌将负伤</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展火计时必会成功，并增加火伤害</t>
+  </si>
+  <si>
+    <t>对智力较低的敌方部队施展火计时必成功，於全火攻有所優势＋[军魂]</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展计略必会成功，於全计略有所優势</t>
+  </si>
+  <si>
+    <t>部队计略的消费气力变为五分之一</t>
+  </si>
+  <si>
+    <t>增加２区格可施展部队计略的範围</t>
+  </si>
+  <si>
+    <t>若识破部队计略，就可对其施展同样的计略并必定成功</t>
+  </si>
+  <si>
+    <t>奇谋</t>
+  </si>
+  <si>
+    <t>对部队施展计略成功率增为２倍</t>
+  </si>
+  <si>
+    <t>补助</t>
+  </si>
+  <si>
+    <t>军乐臺的回復气力效果增为２倍</t>
+  </si>
+  <si>
+    <t>据点和军事设施建设的耐久上昇量增为２倍</t>
+  </si>
+  <si>
+    <t>所在城市获得相当于一个军屯农的额外收入</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>关系</t>
   </si>
 </sst>
 </file>
@@ -6219,7 +6358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
@@ -101649,4 +101788,1737 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BF03DB-BCE5-4C4E-8073-A51234B2B08C}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>696</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>424</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>835</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>850</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>873</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>679</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>925</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>882</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>495</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>972</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
+++ b/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmeng/projects/IdeaProjects/sanguozhi11/PersonalDoc/个人设计/三国志11资料收集.assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BFC81-BD3A-D943-84AC-41E6F1D2DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13460"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27920" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,24 @@
     <sheet name="特殊技映射" sheetId="7" r:id="rId7"/>
     <sheet name="特技" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14779" uniqueCount="1997">
   <si>
     <t>编号</t>
   </si>
@@ -6017,14 +6035,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6033,352 +6045,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6386,310 +6077,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6947,133 +6353,134 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -86142,22 +85549,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:59">
       <c r="A1" t="s">
@@ -86338,7 +85744,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>0</v>
       </c>
@@ -86493,7 +85899,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:59">
       <c r="A3">
         <v>1</v>
       </c>
@@ -86654,7 +86060,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:59">
       <c r="A4">
         <v>2</v>
       </c>
@@ -86815,7 +86221,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:59">
       <c r="A5">
         <v>3</v>
       </c>
@@ -86979,7 +86385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:59">
       <c r="A6">
         <v>4</v>
       </c>
@@ -87143,7 +86549,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:59">
       <c r="A7">
         <v>5</v>
       </c>
@@ -87301,7 +86707,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:59">
       <c r="A8">
         <v>6</v>
       </c>
@@ -87468,7 +86874,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:59">
       <c r="A9">
         <v>7</v>
       </c>
@@ -87626,7 +87032,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:59">
       <c r="A10">
         <v>8</v>
       </c>
@@ -87787,7 +87193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:59">
       <c r="A11">
         <v>9</v>
       </c>
@@ -87951,7 +87357,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:59">
       <c r="A12">
         <v>10</v>
       </c>
@@ -88118,7 +87524,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:59">
       <c r="A13">
         <v>11</v>
       </c>
@@ -88452,7 +87858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:59">
       <c r="A15">
         <v>13</v>
       </c>
@@ -88616,7 +88022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:59">
       <c r="A16">
         <v>14</v>
       </c>
@@ -88777,7 +88183,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:59">
       <c r="A17">
         <v>15</v>
       </c>
@@ -89111,7 +88517,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:59">
       <c r="A19">
         <v>17</v>
       </c>
@@ -89275,7 +88681,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:59">
       <c r="A20">
         <v>18</v>
       </c>
@@ -89427,7 +88833,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:59">
       <c r="A21">
         <v>19</v>
       </c>
@@ -89588,7 +88994,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:59">
       <c r="A22">
         <v>20</v>
       </c>
@@ -89749,7 +89155,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:59">
       <c r="A23">
         <v>21</v>
       </c>
@@ -89907,7 +89313,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:59">
       <c r="A24">
         <v>22</v>
       </c>
@@ -90071,7 +89477,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:59">
       <c r="A25">
         <v>23</v>
       </c>
@@ -90229,7 +89635,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:59">
       <c r="A26">
         <v>24</v>
       </c>
@@ -90384,7 +89790,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:59">
       <c r="A27">
         <v>25</v>
       </c>
@@ -90548,7 +89954,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:59">
       <c r="A28">
         <v>26</v>
       </c>
@@ -90715,7 +90121,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:59">
       <c r="A29">
         <v>27</v>
       </c>
@@ -90882,7 +90288,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:59">
       <c r="A30">
         <v>28</v>
       </c>
@@ -91037,7 +90443,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:59">
       <c r="A31">
         <v>29</v>
       </c>
@@ -91535,7 +90941,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:58">
       <c r="A34">
         <v>32</v>
       </c>
@@ -91699,7 +91105,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:58">
       <c r="A35">
         <v>33</v>
       </c>
@@ -91857,7 +91263,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:58">
       <c r="A36">
         <v>34</v>
       </c>
@@ -92015,7 +91421,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:58">
       <c r="A37">
         <v>35</v>
       </c>
@@ -92176,7 +91582,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:58">
       <c r="A38">
         <v>36</v>
       </c>
@@ -92340,7 +91746,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:58">
       <c r="A39">
         <v>37</v>
       </c>
@@ -92501,7 +91907,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:58">
       <c r="A40">
         <v>38</v>
       </c>
@@ -92665,7 +92071,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:58">
       <c r="A41">
         <v>39</v>
       </c>
@@ -92826,7 +92232,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:58">
       <c r="A42">
         <v>40</v>
       </c>
@@ -92987,7 +92393,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:58">
       <c r="A43">
         <v>41</v>
       </c>
@@ -93143,21 +92549,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Y12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
@@ -93944,21 +93349,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Y37"/>
+      <selection sqref="A1:Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
@@ -96508,21 +95912,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -99147,21 +98550,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -102330,21 +101732,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -102387,22 +101788,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -104122,7 +103522,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
+++ b/PersonalDoc/个人设计/三国志11资料收集.assets/血色衣冠资料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmeng/projects/IdeaProjects/sanguozhi11/PersonalDoc/个人设计/三国志11资料收集.assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BFC81-BD3A-D943-84AC-41E6F1D2DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3D918-51DA-E647-9117-2926DB3709CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27920" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34700" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="建筑物" sheetId="6" r:id="rId6"/>
     <sheet name="特殊技映射" sheetId="7" r:id="rId7"/>
     <sheet name="特技" sheetId="8" r:id="rId8"/>
+    <sheet name="翻译" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14779" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14855" uniqueCount="2035">
   <si>
     <t>编号</t>
   </si>
@@ -6030,13 +6031,131 @@
   </si>
   <si>
     <t>关系</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Legion</t>
+  </si>
+  <si>
+    <t>belong</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>loyalty</t>
+  </si>
+  <si>
+    <t>Merit</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>five circles</t>
+  </si>
+  <si>
+    <t>spearman</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>crossbowmen</t>
+  </si>
+  <si>
+    <t>cavalry</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Strong ID</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>stunt combo</t>
+  </si>
+  <si>
+    <t>Stunt description</t>
+  </si>
+  <si>
+    <t>power level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>debut year</t>
+  </si>
+  <si>
+    <t>birth year</t>
+  </si>
+  <si>
+    <t>year of death</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stunt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6055,6 +6174,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -6081,9 +6208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6361,9 +6494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T115" sqref="T115"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB137" sqref="AB137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -103525,4 +103658,480 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A57DB13-F171-D143-BE87-6C8C0AD67630}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1" t="str">
+        <f>LOWER(B1)&amp;" varchar(255)"&amp;" comment '"&amp;A1&amp;"' ,"</f>
+        <v>id varchar(255) comment '编号' ,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C38" si="0">LOWER(B2)&amp;" varchar(255)"&amp;" comment '"&amp;A2&amp;"' ,"</f>
+        <v>name varchar(255) comment '姓名' ,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>character varchar(255) comment '字' ,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>power varchar(255) comment '势力' ,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>legion varchar(255) comment '军团' ,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>belong varchar(255) comment '所属' ,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>location varchar(255) comment '所在' ,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>identity varchar(255) comment '身份' ,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>loyalty varchar(255) comment '忠诚' ,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>merit varchar(255) comment '功绩' ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>command varchar(255) comment '统率' ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>force varchar(255) comment '武力' ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>intelligence varchar(255) comment '智力' ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>politics varchar(255) comment '政治' ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>charm varchar(255) comment '魅力' ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>five circles varchar(255) comment '五围合' ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>spearman varchar(255) comment '枪兵' ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>halberd varchar(255) comment '戟兵' ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>crossbowmen varchar(255) comment '弩兵' ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>cavalry varchar(255) comment '骑兵' ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>weapon varchar(255) comment '兵器' ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>navy varchar(255) comment '水军' ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>strong id varchar(255) comment '强势ID' ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>icon varchar(255) comment '头像' ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>gender varchar(255) comment '性别' ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>phase varchar(255) comment '相性' ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>stunt varchar(255) comment '特技' ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>stunt combo varchar(255) comment '特技组合' ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>stunt description varchar(255) comment '特技说明' ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>power level 1 varchar(255) comment '功阶1' ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>level 2 varchar(255) comment '功阶2' ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>level 3 varchar(255) comment '功阶3' ,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>level 4 varchar(255) comment '功阶4' ,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>level 5 varchar(255) comment '功阶5' ,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>level 6 varchar(255) comment '功阶6' ,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>debut year varchar(255) comment '登场年' ,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>birth year varchar(255) comment '出生年' ,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>year of death varchar(255) comment '死亡年' ,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>